--- a/biology/Médecine/Gazi_Yaşargil/Gazi_Yaşargil.xlsx
+++ b/biology/Médecine/Gazi_Yaşargil/Gazi_Yaşargil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gazi_Ya%C5%9Fargil</t>
+          <t>Gazi_Yaşargil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mahmut Gazi Yaşargil (6 juillet 1925, à Lice, Diyarbakır) est un scientifique et neurochirurgien turc.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gazi_Ya%C5%9Fargil</t>
+          <t>Gazi_Yaşargil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>L'enseignement et carrière académique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diplômé de lycée Atatürk à Ankara, il a étudié à l'université d'Ankara. Il a poursuivi ses études à l'Université Friedrich Schiller[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diplômé de lycée Atatürk à Ankara, il a étudié à l'université d'Ankara. Il a poursuivi ses études à l'Université Friedrich Schiller. 
 En 1945, il a rejoint l'Université de Bâle où il a réalisé son doctorat en 1950. Par la suite, il a travaillé à l'Université de Berne en tant que professeur adjoint du Département de psychiatrie et à l'université de Bâle dans le département de neurochirurgie. 
 Entre 1957 et 1965, il a continué ses travaux à l'Hôpital universitaire de Zurich, et y est devenu professeur adjoint en 1965.
 Entre 1965 et 1967, il a collaboré avec Prof. Peardon Donaghy dans le domaine de la chirurgie microvasculaire au sein de l'Université du Vermont à Burlington, aux États-Unis.
-Il fait également partie des membres fondateurs de l'Académie Aviasiya[2].
+Il fait également partie des membres fondateurs de l'Académie Aviasiya.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gazi_Ya%C5%9Fargil</t>
+          <t>Gazi_Yaşargil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,19 +560,90 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gazi Yaşargil est considéré comme étant un des fondateurs de la neurochirurgie. Il possède le titre de professeur neurochirurgien. Il a également été nommé "le neurochirurgien du siècle"[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gazi Yaşargil est considéré comme étant un des fondateurs de la neurochirurgie. Il possède le titre de professeur neurochirurgien. Il a également été nommé "le neurochirurgien du siècle". 
 Il a réussi à traiter la maladie d'épilepsie et les tumeurs du cerveau avec les méthodes qu'il a lui-même développées. De 1953 jusqu'à sa retraite en 1999, il a travaillé à l'Université de Zurich et au Département Neurochirurgical de l'Hôpital Universitaire de Zurich en tant que médecin, médecin en chef, professeur, et directeur. 
-En 1999, il a été élu "Le neurochirurgien du siècle" (1950-1999) au Congrès des Neurochirurgiens[5].
-Titre de Doctorat Honoris Causa
-1991 - Université d'Istanbul, Istanbul, Turquie
+En 1999, il a été élu "Le neurochirurgien du siècle" (1950-1999) au Congrès des Neurochirurgiens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gazi_Yaşargil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gazi_Ya%C5%9Fargil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Titre de Doctorat Honoris Causa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1991 - Université d'Istanbul, Istanbul, Turquie
 1999 - Université de Lima
 2000 - Université Hacettepe, Ankara, Turquie
 2001 - Université d'Oxford
-2002 - Université Friedrich-Schiller, Allemagne
-Titre de membre honorifique
-1976 - Académie de neurochirurgie brésilienne, [Brésil]
+2002 - Université Friedrich-Schiller, Allemagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gazi_Yaşargil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gazi_Ya%C5%9Fargil</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Titre de membre honorifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1976 - Académie de neurochirurgie brésilienne, [Brésil]
 1977 - Association des neurochirurgiens, États-Unis
 1979 - American Heart Association à Dallas, Texas, États-Unis
 1981 - Académie de neurochirurgie, Canada
@@ -579,31 +664,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gazi_Ya%C5%9Fargil</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gazi_Yaşargil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gazi_Ya%C5%9Fargil</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1957 - " Prix Vogt"- Association Suisse d'Ophtalmologie
 1968 - "Prix Robert Bing" - L'Académie suisse des sciences médicales
@@ -623,7 +710,7 @@
 2000 - Prix de l'Académie turque des sciences
 2002 - "Prix international Francesco Durante" - Italie
 2002 - "Prix honorifique de la Souveraineté nationale"
-2005 - prix honorifique de la souveraineté nationale (une seconde fois)[6]</t>
+2005 - prix honorifique de la souveraineté nationale (une seconde fois)</t>
         </is>
       </c>
     </row>
